--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\MSc BA 2023-2024\Capstone\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8CDACB-351E-4990-B046-0819EC6BB4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905464CF-38FB-428C-A713-E5755A9998BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>prompt_id</t>
   </si>
@@ -33,10 +33,19 @@
     <t>prompt_content</t>
   </si>
   <si>
-    <t>You're an experienced and customer-focused customer success manager with exceptional communication skills. For many years, you have handled client correspondence and emails for various projects, ensuring clarity and professionalism in all your interactions. Your task is to draft an email to a client (whose name is {CompanyName}) serving as an alert based on the recommendation model, advising the company on the underutilisation of features from your company's product. This email has to be extremely hyper-personalised. Specifically, recommend incorporating {feature x} in conjunction with {feature y} to enhance efficiency, productivity, customer satisfaction and reach their objectives of {objectives}. Please ensure that the tone of the email is friendly yet professional, providing all necessary information clearly and concisely. Include any relevant attachments or links the client may need for reference or further action.</t>
-  </si>
-  <si>
     <t>You’re a dedicated Customer Success Manager who excels in understanding individual customer needs and providing tailored solutions for them. Your approach is highly customer-centric, enhancing their experience and addressing their unique challenges through personalised recommendations. As a Customer Success Manager, you compose an email to a client offering a product recommendation tailored to their needs. Highlight how this additional product or service will address their unique challenges or enhance their experience. Start the email by respectfully addressing the client and acknowledging your existing relationship. Mention key points from your previous interactions to show your understanding of their business or personal needs. Introduce the recommended product or service with a brief overview of its benefits and relevance to their situation. Share specific examples or case studies where similar recommendations have positively impacted other clients. Emphasise how this tailored recommendation aligns perfectly with their goals and challenges. Offer to provide more information or a demo if they want to explore further. Conclude the email by expressing your willingness to discuss the recommendation in detail and provide any additional information they may require. Invite them to schedule a call or meeting to address any questions or concerns. Ensure that the tone of the email is friendly, professional, and focused on providing value to the client. Remember to personalise the email with the client's name, relevant details about their business or challenges, and specific examples that demonstrate the benefits of your recommendation. You aim to show the client that you have their best interests at heart and are committed to helping them succeed.</t>
+  </si>
+  <si>
+    <t>You're an experienced and customer-focused customer success manager with exceptional communication skills. For many years, you have handled client correspondence and emails for various projects, ensuring clarity and professionalism in all your interactions. Your task is to draft an email to a client serving as an alert based on the recommendation model, advising the company on the underutilisation of features from your company's product. This email has to be extremely hyper-personalised. Specifically, recommend incorporating features to enhance efficiency, productivity, customer satisfaction and reach their objectives. Please ensure that the tone of the email is friendly yet professional, providing all necessary information clearly and concisely. Include any relevant attachments or links the client may need for reference or further action.</t>
+  </si>
+  <si>
+    <t>You, as a Customer success Manager, are responsible for ensuring clients make the most of your product. Draft an email to a client who has been onboarded but hasn't fully utilized a key feature that could significantly impact their productivity. Start the email by expressing your commitment to their success and referencing specific data points or observations from their usage patterns. Describe the underused feature, detail its direct benefits, and draw parallels with similar clients who have seen improvements by adopting this feature. Offer to set up a personalized training session specifically for their team. Conclude the email by suggesting a short call to discuss their current experience and how this feature fits into their workflow</t>
+  </si>
+  <si>
+    <t>You are a Customer Success Manager who has noticed that a specific client could improve their efficiency by using an underutilized feature of your product. Compose an email where you introduce this feature in detail. Begin by acknowledging their current use of your product and complimenting them on their successes. Explain the feature, focusing on how it integrates with their existing workflow and the specific benefits it offers. Include data-driven insights and show some performance metrics to create a strong impact. Offer to provide a personalized demo or training session to help them get started. Close the email by suggesting a follow-up meeting to discuss implementation.</t>
+  </si>
+  <si>
+    <t>As a proactive Customer Success Manager, you've spotted a chance to boost a client's results through a feature recommendation. Compose an email to introduce this feature comprehensively. Start with a warm acknowledgment of how well they've adapted to your core offerings and their innovative use of your product. Describe the neglected feature, focusing on its synergy with their current workflow and how it can solve specific problems or speed up processes. Share empirical evidence or analytics that illustrate the potential impact of adopting this feature. Offer a personalized walkthrough or interactive demo tailored to their business needs. Wrap up the email by proposing a meeting to discuss how this feature can be implemented to maximize their productivity and outcomes</t>
   </si>
 </sst>
 </file>
@@ -78,10 +87,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -363,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,12 +395,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="265.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="234" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
@@ -396,14 +408,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="202.8" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\MSc BA 2023-2024\Capstone\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905464CF-38FB-428C-A713-E5755A9998BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186096C9-5FF9-450F-837E-740D6DCA90AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\MSc BA 2023-2024\Capstone\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunaalumrigar/Desktop/MSc. Business Analytics/Summer Trimester/Capstone Project/MMD4/Code/UI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186096C9-5FF9-450F-837E-740D6DCA90AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299040AA-E3FE-5D45-8048-B3713A16F9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,17 +377,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,7 +395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="234" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -403,7 +403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -411,7 +411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -419,7 +419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -427,7 +427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
